--- a/src/main/resources/templates/标准报价单模板.xlsx
+++ b/src/main/resources/templates/标准报价单模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SpringDemo\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LianChuangJie\springboot\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541BD97D-2199-4B1F-903D-23A4664CAA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9E3C0E-5A18-4E90-B286-302BA2E66A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>主题(subject):</t>
   </si>
@@ -60,9 +60,6 @@
     <t>付款方式:</t>
   </si>
   <si>
-    <t>月结60天</t>
-  </si>
-  <si>
     <t>货币:</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>序号</t>
   </si>
   <si>
-    <t>型号</t>
-  </si>
-  <si>
     <t>客户料号</t>
   </si>
   <si>
@@ -107,18 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{from}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{to}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{invalidDate}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{date}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,34 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{no}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{vat}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{currency}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{senderName}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{senderTel}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{recipientName}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{recipientTel}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{.quoModle}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,6 +142,70 @@
   </si>
   <si>
     <t>{.lineRemark}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{vatRate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{uSenderName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{uRecipientName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{uRecipientTel}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{uSenderTel}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{uToClient}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{expDate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{uPaymentMethod}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{uTransaPlace}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{uFreightPayment}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.modle}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{docEntry}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{uDocCur}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{U_From_Company}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -277,11 +295,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -292,17 +347,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,233 +645,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="30.4140625" customWidth="1"/>
-    <col min="3" max="3" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.9140625" customWidth="1"/>
-    <col min="5" max="5" width="16.9140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.375" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="44.5" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+    <row r="1" spans="1:11" ht="44.45" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1">
+    <row r="2" spans="1:11" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="I2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1">
+    <row r="3" spans="1:11" ht="18" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="I3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1">
+    <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="I4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1">
+    <row r="5" spans="1:11" ht="18" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="1" t="s">
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1">
+    <row r="6" spans="1:11" ht="18" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="I6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="18" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>46</v>
+      <c r="K8" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/templates/标准报价单模板.xlsx
+++ b/src/main/resources/templates/标准报价单模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LianChuangJie\springboot\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9E3C0E-5A18-4E90-B286-302BA2E66A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74635B98-95A0-41CC-85FE-89A8AEC951F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{date}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编号(No):</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,42 +145,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{uSenderName}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{uRecipientName}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{uRecipientTel}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{uSenderTel}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{uToClient}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{expDate}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{uPaymentMethod}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{uTransaPlace}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{uFreightPayment}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{.modle}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,11 +165,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{uDocCur}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{U_From_Company}</t>
+    <t>{ufromcompany}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{utoClient}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{usenderName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{urecipientName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{udocCur}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{utransaPlace}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ufreightPayment}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{urecipientTel}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{usenderTel}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{upaymentMethod}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{dateNow}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +648,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+      <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -691,14 +691,14 @@
         <v>1</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -708,7 +708,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
@@ -716,14 +716,14 @@
         <v>3</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -733,7 +733,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
@@ -741,14 +741,14 @@
         <v>6</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -758,7 +758,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
@@ -766,14 +766,14 @@
         <v>8</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -783,7 +783,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -791,14 +791,14 @@
         <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -808,13 +808,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>15</v>
@@ -840,35 +840,35 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
